--- a/data/old-spreadsheets/21 09 10 Lake Erie lab analyses.xlsx
+++ b/data/old-spreadsheets/21 09 10 Lake Erie lab analyses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sklem\Documents\Etudes\Trent\Xenopoulos lab\Projects\Lake Erie &amp; animal excretion\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/old-spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4FE97A-74FF-46FF-8359-D3DCCFBBFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" firstSheet="4" activeTab="7" xr2:uid="{70BA1BFC-5979-412F-9747-5311E2A3C231}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{70BA1BFC-5979-412F-9747-5311E2A3C231}"/>
   </bookViews>
   <sheets>
     <sheet name="SRP STD curve" sheetId="1" r:id="rId1"/>
@@ -463,11 +463,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -7554,7 +7553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFECC0BB-C149-4C7F-BB9B-888F354E50E5}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I47"/>
     </sheetView>
   </sheetViews>
@@ -10990,14 +10989,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BEA966-F5FD-4646-8979-EA568A8787E2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="8.7265625" style="4"/>
-    <col min="13" max="13" width="8.7265625" style="4"/>
+    <col min="11" max="11" width="8.7265625" style="3"/>
+    <col min="13" max="13" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -11031,16 +11030,16 @@
       <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -11078,7 +11077,7 @@
         <f t="shared" ref="J2:J32" si="5">H2*1.5</f>
         <v>43.938510000000001</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <f t="shared" ref="K2:K32" si="6">AVERAGE(I2:J2)</f>
         <v>72.712905000000006</v>
       </c>
@@ -11086,10 +11085,10 @@
         <f t="shared" ref="L2:L32" si="7">STDEV(I2:J2)</f>
         <v>40.693139658080575</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>25.568419500000001</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2">
         <f t="shared" ref="N2:N32" si="8">STDEV(K2,M2)</f>
         <v>33.336185392600861</v>
       </c>
@@ -11134,7 +11133,7 @@
         <f t="shared" si="5"/>
         <v>114.02998500000001</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" si="6"/>
         <v>94.109250000000003</v>
       </c>
@@ -11142,10 +11141,10 @@
         <f t="shared" si="7"/>
         <v>28.172173609440417</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>115.53137700000001</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3">
         <f t="shared" si="8"/>
         <v>15.147731269139438</v>
       </c>
@@ -11190,7 +11189,7 @@
         <f t="shared" si="5"/>
         <v>76.401929999999993</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="6"/>
         <v>90.051322499999998</v>
       </c>
@@ -11198,10 +11197,10 @@
         <f t="shared" si="7"/>
         <v>19.303155991653529</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>100.52541000000001</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4">
         <f t="shared" si="8"/>
         <v>7.4062982979912597</v>
       </c>
@@ -11240,7 +11239,7 @@
         <f t="shared" si="5"/>
         <v>34.347044999999994</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="6"/>
         <v>21.804359999999996</v>
       </c>
@@ -11248,10 +11247,10 @@
         <f t="shared" si="7"/>
         <v>17.738035235573584</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>9.178407</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5">
         <f t="shared" si="8"/>
         <v>8.9278969852426311</v>
       </c>
@@ -11290,7 +11289,7 @@
         <f t="shared" si="5"/>
         <v>389.23125000000005</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="6"/>
         <v>378.90198000000004</v>
       </c>
@@ -11298,10 +11297,10 @@
         <f t="shared" si="7"/>
         <v>14.60779372341355</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>479.45712149999997</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6">
         <f t="shared" si="8"/>
         <v>71.103222437822936</v>
       </c>
@@ -11340,7 +11339,7 @@
         <f t="shared" si="5"/>
         <v>142.80438000000001</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="6"/>
         <v>132.47511</v>
       </c>
@@ -11348,10 +11347,10 @@
         <f t="shared" si="7"/>
         <v>14.60779372341355</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>104.3861685</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7">
         <f t="shared" si="8"/>
         <v>19.861881011002154</v>
       </c>
@@ -11390,7 +11389,7 @@
         <f t="shared" si="5"/>
         <v>96.322665000000001</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="6"/>
         <v>87.100102500000006</v>
       </c>
@@ -11398,10 +11397,10 @@
         <f t="shared" si="7"/>
         <v>13.04267296733353</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>79.935714000000004</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8">
         <f t="shared" si="8"/>
         <v>5.065987691404918</v>
       </c>
@@ -11440,7 +11439,7 @@
         <f t="shared" si="5"/>
         <v>31.395824999999995</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="6"/>
         <v>22.1732625</v>
       </c>
@@ -11448,10 +11447,10 @@
         <f t="shared" si="7"/>
         <v>13.042672967333504</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>6.9202274999999984</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9">
         <f t="shared" si="8"/>
         <v>10.785524482175752</v>
       </c>
@@ -11490,7 +11489,7 @@
         <f t="shared" si="5"/>
         <v>71.975099999999998</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="6"/>
         <v>63.121439999999993</v>
       </c>
@@ -11498,10 +11497,10 @@
         <f t="shared" si="7"/>
         <v>12.52096604864019</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>62.354892000000007</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10">
         <f t="shared" si="8"/>
         <v>0.54203128890497576</v>
       </c>
@@ -11540,7 +11539,7 @@
         <f t="shared" si="5"/>
         <v>13.688504999999999</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="6"/>
         <v>4.8348449999999987</v>
       </c>
@@ -11548,10 +11547,10 @@
         <f t="shared" si="7"/>
         <v>12.520966048640178</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>7.0659165000000002</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11">
         <f t="shared" si="8"/>
         <v>1.5776057869620475</v>
       </c>
@@ -11590,7 +11589,7 @@
         <f t="shared" si="5"/>
         <v>251.99952000000002</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="6"/>
         <v>260.48427749999996</v>
       </c>
@@ -11598,10 +11597,10 @@
         <f t="shared" si="7"/>
         <v>11.999259129946797</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>266.46518099999997</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <f t="shared" si="8"/>
         <v>4.2291374224723635</v>
       </c>
@@ -11640,7 +11639,7 @@
         <f t="shared" si="5"/>
         <v>71.237294999999989</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="6"/>
         <v>77.508637499999992</v>
       </c>
@@ -11648,10 +11647,10 @@
         <f t="shared" si="7"/>
         <v>8.8690176177867954</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>115.31284350000001</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13">
         <f t="shared" si="8"/>
         <v>26.731610419973151</v>
       </c>
@@ -11690,7 +11689,7 @@
         <f t="shared" si="5"/>
         <v>74.926320000000004</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="6"/>
         <v>68.654977500000001</v>
       </c>
@@ -11698,10 +11697,10 @@
         <f t="shared" si="7"/>
         <v>8.8690176177867954</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>77.94361499999998</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14">
         <f t="shared" si="8"/>
         <v>6.5680585642336444</v>
       </c>
@@ -11740,7 +11739,7 @@
         <f t="shared" si="5"/>
         <v>108.86535000000001</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="6"/>
         <v>114.3988875</v>
       </c>
@@ -11748,10 +11747,10 @@
         <f t="shared" si="7"/>
         <v>7.8256037804001028</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>92.002603499999992</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15">
         <f t="shared" si="8"/>
         <v>15.836564289779709</v>
       </c>
@@ -11790,7 +11789,7 @@
         <f t="shared" si="5"/>
         <v>165.67633499999999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="6"/>
         <v>160.88060250000001</v>
       </c>
@@ -11798,10 +11797,10 @@
         <f t="shared" si="7"/>
         <v>6.782189943013428</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <v>149.18553600000001</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16">
         <f t="shared" si="8"/>
         <v>8.269660828577619</v>
       </c>
@@ -11840,7 +11839,7 @@
         <f t="shared" si="5"/>
         <v>153.13364999999999</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="6"/>
         <v>157.19157749999999</v>
       </c>
@@ -11848,10 +11847,10 @@
         <f t="shared" si="7"/>
         <v>5.738776105626755</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>129.8817435</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17">
         <f t="shared" si="8"/>
         <v>19.310968814478933</v>
       </c>
@@ -11890,7 +11889,7 @@
         <f t="shared" si="5"/>
         <v>117.71901000000001</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="6"/>
         <v>113.66108250000001</v>
       </c>
@@ -11898,10 +11897,10 @@
         <f t="shared" si="7"/>
         <v>5.738776105626755</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>100.81678800000002</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18">
         <f t="shared" si="8"/>
         <v>9.0822877405070681</v>
       </c>
@@ -11940,7 +11939,7 @@
         <f t="shared" si="5"/>
         <v>-8.4456450000000007</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="6"/>
         <v>-4.3877175000000008</v>
       </c>
@@ -11948,10 +11947,10 @@
         <f t="shared" si="7"/>
         <v>5.738776105626747</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>-2.4038684999999993</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19">
         <f t="shared" si="8"/>
         <v>1.4027930807501516</v>
       </c>
@@ -11990,7 +11989,7 @@
         <f t="shared" si="5"/>
         <v>53.529975</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="6"/>
         <v>57.219000000000001</v>
       </c>
@@ -11998,10 +11997,10 @@
         <f t="shared" si="7"/>
         <v>5.2170691869334078</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <v>50.054611500000007</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20">
         <f t="shared" si="8"/>
         <v>5.0659876914049127</v>
       </c>
@@ -12040,7 +12039,7 @@
         <f t="shared" si="5"/>
         <v>151.65804</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="6"/>
         <v>147.96901500000001</v>
       </c>
@@ -12048,10 +12047,10 @@
         <f t="shared" si="7"/>
         <v>5.2170691869334078</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>145.106244</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21">
         <f t="shared" si="8"/>
         <v>2.0242847870842002</v>
       </c>
@@ -12090,7 +12089,7 @@
         <f t="shared" si="5"/>
         <v>95.584860000000006</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="6"/>
         <v>99.273885000000007</v>
       </c>
@@ -12098,10 +12097,10 @@
         <f t="shared" si="7"/>
         <v>5.2170691869333981</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>97.684474500000007</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22">
         <f t="shared" si="8"/>
         <v>1.1238829426391008</v>
       </c>
@@ -12140,7 +12139,7 @@
         <f t="shared" si="5"/>
         <v>187.81048499999997</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="6"/>
         <v>184.12146000000001</v>
       </c>
@@ -12148,10 +12147,10 @@
         <f t="shared" si="7"/>
         <v>5.2170691869333679</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <v>195.51463799999999</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23">
         <f t="shared" si="8"/>
         <v>8.0561934230653716</v>
       </c>
@@ -12190,7 +12189,7 @@
         <f t="shared" si="5"/>
         <v>190.76170499999998</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" si="6"/>
         <v>194.08182749999997</v>
       </c>
@@ -12198,10 +12197,10 @@
         <f t="shared" si="7"/>
         <v>4.6953622682400811</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <v>185.89916399999998</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24">
         <f t="shared" si="8"/>
         <v>5.786016849017642</v>
       </c>
@@ -12240,7 +12239,7 @@
         <f t="shared" si="5"/>
         <v>133.21291499999998</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="6"/>
         <v>136.16413499999999</v>
       </c>
@@ -12248,10 +12247,10 @@
         <f t="shared" si="7"/>
         <v>4.1736553495467552</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>129.0076095</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25">
         <f t="shared" si="8"/>
         <v>5.0604277107844382</v>
       </c>
@@ -12290,7 +12289,7 @@
         <f t="shared" si="5"/>
         <v>101.4873</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="6"/>
         <v>104.43852</v>
       </c>
@@ -12298,10 +12297,10 @@
         <f t="shared" si="7"/>
         <v>4.1736553495467144</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <v>108.246927</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26">
         <f t="shared" si="8"/>
         <v>2.6929504152183177</v>
       </c>
@@ -12340,7 +12339,7 @@
         <f t="shared" si="5"/>
         <v>18.115334999999998</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="6"/>
         <v>15.901919999999999</v>
       </c>
@@ -12348,10 +12347,10 @@
         <f t="shared" si="7"/>
         <v>3.1302415121600475</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <v>21.926194500000001</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27">
         <f t="shared" si="8"/>
         <v>4.2598053506792022</v>
       </c>
@@ -12390,7 +12389,7 @@
         <f t="shared" si="5"/>
         <v>12.950700000000001</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" si="6"/>
         <v>14.0574075</v>
       </c>
@@ -12398,10 +12397,10 @@
         <f t="shared" si="7"/>
         <v>1.5651207560800218</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <v>9.9068520000000007</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28">
         <f t="shared" si="8"/>
         <v>2.934885939741124</v>
       </c>
@@ -12440,7 +12439,7 @@
         <f t="shared" si="5"/>
         <v>53.529975</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="6"/>
         <v>54.636682499999992</v>
       </c>
@@ -12448,10 +12447,10 @@
         <f t="shared" si="7"/>
         <v>1.5651207560800104</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <v>61.844980499999998</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29">
         <f t="shared" si="8"/>
         <v>5.0970363966134329</v>
       </c>
@@ -12490,7 +12489,7 @@
         <f t="shared" si="5"/>
         <v>88.944615000000013</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="6"/>
         <v>90.051322499999998</v>
       </c>
@@ -12498,10 +12497,10 @@
         <f t="shared" si="7"/>
         <v>1.5651207560800104</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <v>90.181491000000022</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30">
         <f t="shared" si="8"/>
         <v>9.2043029046898636E-2</v>
       </c>
@@ -12540,7 +12539,7 @@
         <f t="shared" si="5"/>
         <v>195.92633999999998</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="6"/>
         <v>194.81963250000001</v>
       </c>
@@ -12548,10 +12547,10 @@
         <f t="shared" si="7"/>
         <v>1.5651207560800002</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <v>201.487887</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31">
         <f t="shared" si="8"/>
         <v>4.7151679756277032</v>
       </c>
@@ -12590,7 +12589,7 @@
         <f t="shared" si="5"/>
         <v>297.74342999999999</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="6"/>
         <v>297.74342999999999</v>
       </c>
@@ -12598,10 +12597,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>373.21320149999997</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32">
         <f t="shared" si="8"/>
         <v>53.365187202249139</v>
       </c>
@@ -12758,8 +12757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9976D9-D551-4D21-B140-6BE14DDCFAEB}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13644,7 +13643,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>118</v>
       </c>
       <c r="B19" t="s">
@@ -14199,7 +14198,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>130</v>
       </c>
       <c r="B31" t="s">
@@ -15306,14 +15305,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD9F0FB-065D-4BFC-B186-825EBFFEA252}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="8.7265625" style="4"/>
-    <col min="9" max="9" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="9" max="9" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -15335,19 +15334,19 @@
       <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>82</v>
       </c>
       <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>96</v>
       </c>
       <c r="L1" t="s">
@@ -15384,7 +15383,7 @@
         <f t="shared" ref="F2:F20" si="0">D2*$M$1+$M$2</f>
         <v>414.46128999999996</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f t="shared" ref="G2:G13" si="1">AVERAGE(E2:F2)</f>
         <v>405.51712499999996</v>
       </c>
@@ -15392,7 +15391,7 @@
         <f t="shared" ref="H2:H47" si="2">STDEV(E2:F2)</f>
         <v>12.64895944710271</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>552.55100000000004</v>
       </c>
       <c r="J2">
@@ -15435,7 +15434,7 @@
         <f t="shared" si="0"/>
         <v>533.27184</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f t="shared" si="1"/>
         <v>429.67971999999997</v>
       </c>
@@ -15443,7 +15442,7 @@
         <f t="shared" si="2"/>
         <v>146.50138105898142</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>422.56400000000002</v>
       </c>
       <c r="J3">
@@ -15480,7 +15479,7 @@
         <f t="shared" si="0"/>
         <v>323.95168000000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>333.29633000000001</v>
       </c>
@@ -15488,7 +15487,7 @@
         <f t="shared" si="2"/>
         <v>13.215330765629744</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>403.9194</v>
       </c>
       <c r="J4">
@@ -15531,7 +15530,7 @@
         <f t="shared" si="0"/>
         <v>316.74295000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>279.23085500000002</v>
       </c>
@@ -15539,7 +15538,7 @@
         <f t="shared" si="2"/>
         <v>53.050113502028132</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>357.17660000000001</v>
       </c>
       <c r="J5">
@@ -15582,7 +15581,7 @@
         <f t="shared" si="0"/>
         <v>405.11664000000002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="1"/>
         <v>417.13119</v>
       </c>
@@ -15590,7 +15589,7 @@
         <f t="shared" si="2"/>
         <v>16.991139555809649</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>422.30140000000006</v>
       </c>
       <c r="J6">
@@ -15627,7 +15626,7 @@
         <f t="shared" si="0"/>
         <v>394.43703999999997</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>345.04388999999998</v>
       </c>
@@ -15635,7 +15634,7 @@
         <f t="shared" si="2"/>
         <v>69.852462618328389</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>356.3888</v>
       </c>
       <c r="J7">
@@ -15672,7 +15671,7 @@
         <f t="shared" si="0"/>
         <v>467.59230000000002</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>508.70875999999998</v>
       </c>
@@ -15680,7 +15679,7 @@
         <f t="shared" si="2"/>
         <v>58.147455368770814</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>590.89060000000006</v>
       </c>
       <c r="J8">
@@ -15717,7 +15716,7 @@
         <f t="shared" si="0"/>
         <v>625.1164</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>596.01449000000002</v>
       </c>
@@ -15725,7 +15724,7 @@
         <f t="shared" si="2"/>
         <v>41.156315812961239</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>761.58060000000012</v>
       </c>
       <c r="J9">
@@ -15762,7 +15761,7 @@
         <f t="shared" si="0"/>
         <v>739.9221</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>710.15271499999994</v>
       </c>
@@ -15770,7 +15769,7 @@
         <f t="shared" si="2"/>
         <v>42.100268010506177</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>711.6866</v>
       </c>
       <c r="J10">
@@ -15807,7 +15806,7 @@
         <f t="shared" si="0"/>
         <v>632.59212000000002</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>630.18921</v>
       </c>
@@ -15815,7 +15814,7 @@
         <f t="shared" si="2"/>
         <v>3.3982279111619622</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>659.16660000000013</v>
       </c>
       <c r="J11">
@@ -15852,7 +15851,7 @@
         <f t="shared" si="0"/>
         <v>516.98545000000001</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>578.52664499999992</v>
       </c>
@@ -15860,7 +15859,7 @@
         <f t="shared" si="2"/>
         <v>87.032392613648128</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>563.31759999999997</v>
       </c>
       <c r="J12">
@@ -15897,7 +15896,7 @@
         <f t="shared" si="0"/>
         <v>558.10190999999998</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>459.31560999999999</v>
       </c>
@@ -15905,7 +15904,7 @@
         <f t="shared" si="2"/>
         <v>139.7049252366574</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>768.14560000000006</v>
       </c>
       <c r="J13">
@@ -15942,7 +15941,7 @@
         <f t="shared" si="0"/>
         <v>722.30076000000008</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>F14</f>
         <v>722.30076000000008</v>
       </c>
@@ -15950,7 +15949,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>1116.0906000000002</v>
       </c>
       <c r="J14">
@@ -15987,7 +15986,7 @@
         <f t="shared" si="0"/>
         <v>155.214</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" ref="G15:G47" si="7">AVERAGE(E15:F15)</f>
         <v>207.944525</v>
       </c>
@@ -15995,7 +15994,7 @@
         <f t="shared" si="2"/>
         <v>74.572223606053498</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>283.1234</v>
       </c>
       <c r="J15">
@@ -16032,7 +16031,7 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G16" s="4" t="e">
+      <c r="G16" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
@@ -16040,7 +16039,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>1175.9634000000001</v>
       </c>
       <c r="J16" t="e">
@@ -16077,7 +16076,7 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="4" t="e">
+      <c r="G17" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
@@ -16085,7 +16084,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>833.53300000000013</v>
       </c>
       <c r="J17" t="e">
@@ -16122,7 +16121,7 @@
         <f t="shared" si="0"/>
         <v>598.68439000000001</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="7"/>
         <v>567.98054000000002</v>
       </c>
@@ -16130,7 +16129,7 @@
         <f t="shared" si="2"/>
         <v>43.421801087069134</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>729.80600000000004</v>
       </c>
       <c r="J18">
@@ -16167,7 +16166,7 @@
         <f t="shared" si="0"/>
         <v>360.79630000000003</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="7"/>
         <v>434.75252999999998</v>
       </c>
@@ -16175,7 +16174,7 @@
         <f t="shared" si="2"/>
         <v>104.58990348798434</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>405.495</v>
       </c>
       <c r="J19">
@@ -16212,7 +16211,7 @@
         <f t="shared" si="0"/>
         <v>408.85450000000003</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="7"/>
         <v>410.72343000000001</v>
       </c>
@@ -16220,7 +16219,7 @@
         <f t="shared" si="2"/>
         <v>2.643066153125917</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>496.35460000000012</v>
       </c>
       <c r="J20">
@@ -16257,7 +16256,7 @@
         <f t="shared" ref="F21:F47" si="9">D21*$M$4+$M$5</f>
         <v>269.50468000000001</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="7"/>
         <v>282.26548000000003</v>
       </c>
@@ -16265,7 +16264,7 @@
         <f t="shared" si="2"/>
         <v>18.046496426730574</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>424.00151999999991</v>
       </c>
       <c r="J21">
@@ -16302,7 +16301,7 @@
         <f t="shared" si="9"/>
         <v>630.84800000000007</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" si="7"/>
         <v>568.6391000000001</v>
       </c>
@@ -16310,7 +16309,7 @@
         <f t="shared" si="2"/>
         <v>87.976670080311138</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>766.53</v>
       </c>
       <c r="J22">
@@ -16347,7 +16346,7 @@
         <f t="shared" si="9"/>
         <v>572.3610000000001</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="7"/>
         <v>571.51028000000008</v>
       </c>
@@ -16355,7 +16354,7 @@
         <f t="shared" si="2"/>
         <v>1.2030997617820733</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>724.10435999999993</v>
       </c>
       <c r="J23">
@@ -16392,7 +16391,7 @@
         <f t="shared" si="9"/>
         <v>394.77320000000003</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <f t="shared" si="7"/>
         <v>419.55042000000003</v>
       </c>
@@ -16400,7 +16399,7 @@
         <f t="shared" si="2"/>
         <v>35.040280561901859</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>761.06412</v>
       </c>
       <c r="J24">
@@ -16437,7 +16436,7 @@
         <f t="shared" si="9"/>
         <v>54.27252</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f t="shared" si="7"/>
         <v>53.847160000000002</v>
       </c>
@@ -16445,7 +16444,7 @@
         <f t="shared" si="2"/>
         <v>0.60154988089101147</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>60.650639999999989</v>
       </c>
       <c r="J25">
@@ -16482,7 +16481,7 @@
         <f t="shared" si="9"/>
         <v>67.033319999999989</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f t="shared" si="7"/>
         <v>64.055799999999991</v>
       </c>
@@ -16490,7 +16489,7 @@
         <f t="shared" si="2"/>
         <v>4.2108491662371312</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>64.034279999999995</v>
       </c>
       <c r="J26">
@@ -16527,7 +16526,7 @@
         <f t="shared" si="9"/>
         <v>57.250039999999998</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f t="shared" si="7"/>
         <v>53.102780000000003</v>
       </c>
@@ -16535,7 +16534,7 @@
         <f t="shared" si="2"/>
         <v>5.8651113386874361</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>55.445039999999992</v>
       </c>
       <c r="J27">
@@ -16572,7 +16571,7 @@
         <f t="shared" si="9"/>
         <v>263.54964000000001</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <f t="shared" si="7"/>
         <v>333.84037999999998</v>
       </c>
@@ -16580,7 +16579,7 @@
         <f t="shared" si="2"/>
         <v>99.406117817241281</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>657.99324000000001</v>
       </c>
       <c r="J28">
@@ -16617,7 +16616,7 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G29" s="4" t="e">
+      <c r="G29" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
@@ -16625,7 +16624,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>1042.4267999999997</v>
       </c>
       <c r="J29" t="e">
@@ -16662,7 +16661,7 @@
         <f t="shared" si="9"/>
         <v>568.1074000000001</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f t="shared" si="7"/>
         <v>517.70224000000007</v>
       </c>
@@ -16670,7 +16669,7 @@
         <f t="shared" si="2"/>
         <v>71.283660885585903</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>889.12187999999992</v>
       </c>
       <c r="J30">
@@ -16707,7 +16706,7 @@
         <f t="shared" si="9"/>
         <v>412.00027999999998</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <f t="shared" si="7"/>
         <v>408.59739999999999</v>
       </c>
@@ -16715,7 +16714,7 @@
         <f t="shared" si="2"/>
         <v>4.8123990471281317</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>627.80075999999985</v>
       </c>
       <c r="J31">
@@ -16752,7 +16751,7 @@
         <f t="shared" si="9"/>
         <v>358.83028000000002</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <f t="shared" si="7"/>
         <v>315.23088000000001</v>
       </c>
@@ -16760,7 +16759,7 @@
         <f t="shared" si="2"/>
         <v>61.658862791329582</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <v>508.59251999999992</v>
       </c>
       <c r="J32">
@@ -16797,7 +16796,7 @@
         <f t="shared" si="9"/>
         <v>244.62112000000002</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <f t="shared" si="7"/>
         <v>245.79086000000001</v>
       </c>
@@ -16805,7 +16804,7 @@
         <f t="shared" si="2"/>
         <v>1.6542621724502904</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>338.62967999999995</v>
       </c>
       <c r="J33">
@@ -16842,7 +16841,7 @@
         <f t="shared" si="9"/>
         <v>262.27356000000003</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <f t="shared" si="7"/>
         <v>252.91564</v>
       </c>
@@ -16850,7 +16849,7 @@
         <f t="shared" si="2"/>
         <v>13.234097379602463</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>378.45251999999994</v>
       </c>
       <c r="J34">
@@ -16887,7 +16886,7 @@
         <f t="shared" si="9"/>
         <v>622.55348000000004</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <f t="shared" si="7"/>
         <v>588.84370000000001</v>
       </c>
@@ -16895,7 +16894,7 @@
         <f t="shared" si="2"/>
         <v>47.672828060613348</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <v>749.35151999999994</v>
       </c>
       <c r="J35">
@@ -16932,7 +16931,7 @@
         <f t="shared" si="9"/>
         <v>439.64868000000001</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <f t="shared" si="7"/>
         <v>448.90026</v>
       </c>
@@ -16940,7 +16939,7 @@
         <f t="shared" si="2"/>
         <v>13.083709909379664</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>580.69007999999985</v>
       </c>
       <c r="J36">
@@ -16977,7 +16976,7 @@
         <f t="shared" si="9"/>
         <v>123.6062</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <f t="shared" si="7"/>
         <v>135.72896</v>
       </c>
@@ -16985,7 +16984,7 @@
         <f t="shared" si="2"/>
         <v>17.14417160539406</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>184.54392000000001</v>
       </c>
       <c r="J37">
@@ -17022,7 +17021,7 @@
         <f t="shared" si="9"/>
         <v>77.454639999999998</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <f t="shared" si="7"/>
         <v>74.583460000000002</v>
       </c>
@@ -17030,7 +17029,7 @@
         <f t="shared" si="2"/>
         <v>4.0604616960143867</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="3">
         <v>93.706199999999995</v>
       </c>
       <c r="J38">
@@ -17067,7 +17066,7 @@
         <f t="shared" si="9"/>
         <v>68.522079999999988</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <f t="shared" si="7"/>
         <v>60.227559999999997</v>
       </c>
@@ -17075,7 +17074,7 @@
         <f t="shared" si="2"/>
         <v>11.730222677374877</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="3">
         <v>88.760879999999986</v>
       </c>
       <c r="J39">
@@ -17112,7 +17111,7 @@
         <f t="shared" si="9"/>
         <v>57.462719999999997</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <f t="shared" si="7"/>
         <v>53.52814</v>
       </c>
@@ -17120,7 +17119,7 @@
         <f t="shared" si="2"/>
         <v>5.5643363982419283</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>70.801559999999995</v>
       </c>
       <c r="J40">
@@ -17157,7 +17156,7 @@
         <f t="shared" si="9"/>
         <v>67.245999999999995</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <f t="shared" si="7"/>
         <v>62.673379999999995</v>
       </c>
@@ -17165,7 +17164,7 @@
         <f t="shared" si="2"/>
         <v>6.4666612195784579</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>77.30856</v>
       </c>
       <c r="J41">
@@ -17202,7 +17201,7 @@
         <f t="shared" si="9"/>
         <v>17.266200000000001</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <f t="shared" si="7"/>
         <v>19.073980000000002</v>
       </c>
@@ -17210,7 +17209,7 @@
         <f t="shared" si="2"/>
         <v>2.5565869937868353</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="3">
         <v>62.732879999999994</v>
       </c>
       <c r="J42">
@@ -17250,7 +17249,7 @@
         <f t="shared" si="9"/>
         <v>32.579160000000002</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <f t="shared" si="7"/>
         <v>28.750920000000001</v>
       </c>
@@ -17258,7 +17257,7 @@
         <f t="shared" si="2"/>
         <v>5.4139489280191881</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="3">
         <v>27.855359999999997</v>
       </c>
       <c r="J43">
@@ -17298,7 +17297,7 @@
         <f t="shared" si="9"/>
         <v>19.393000000000001</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <f t="shared" si="7"/>
         <v>17.691560000000003</v>
       </c>
@@ -17306,7 +17305,7 @@
         <f t="shared" si="2"/>
         <v>2.4061995235640787</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="3">
         <v>15.882479999999999</v>
       </c>
       <c r="J44">
@@ -17346,7 +17345,7 @@
         <f t="shared" si="9"/>
         <v>18.754960000000004</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <f t="shared" si="7"/>
         <v>16.521820000000005</v>
       </c>
@@ -17354,7 +17353,7 @@
         <f t="shared" si="2"/>
         <v>3.1581368746778304</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="3">
         <v>14.320799999999998</v>
       </c>
       <c r="J45">
@@ -17394,7 +17393,7 @@
         <f t="shared" si="9"/>
         <v>19.818360000000002</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <f t="shared" si="7"/>
         <v>18.967640000000003</v>
       </c>
@@ -17402,7 +17401,7 @@
         <f t="shared" si="2"/>
         <v>1.203099761782038</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="3">
         <v>22.910039999999999</v>
       </c>
       <c r="J46">
@@ -17442,7 +17441,7 @@
         <f t="shared" si="9"/>
         <v>24.28464</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <f t="shared" si="7"/>
         <v>24.28464</v>
       </c>
@@ -17450,7 +17449,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="3">
         <v>27.855359999999997</v>
       </c>
       <c r="J47">
